--- a/output/feature importance rbf.xlsx
+++ b/output/feature importance rbf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Feature</t>
   </si>
@@ -25,106 +25,85 @@
     <t>線條方向</t>
   </si>
   <si>
+    <t>TUG_StandToSit_c</t>
+  </si>
+  <si>
     <t>CVLT-SF-10MIN</t>
   </si>
   <si>
+    <t>Right Stride Duration_c</t>
+  </si>
+  <si>
+    <t>TUG_Forward_c</t>
+  </si>
+  <si>
+    <t>fall次數</t>
+  </si>
+  <si>
+    <t>TUG_MidTurn_m</t>
+  </si>
+  <si>
+    <t>TUG_Return_c</t>
+  </si>
+  <si>
     <t>TMT-A</t>
   </si>
   <si>
-    <t>TUG_Return_c</t>
-  </si>
-  <si>
-    <t>TUG_MidTurn_m</t>
-  </si>
-  <si>
-    <t>fall次數</t>
-  </si>
-  <si>
-    <t>TUG_Forward_c</t>
-  </si>
-  <si>
-    <t>Right Stride Duration_c</t>
+    <t>Left Stride Duration_c</t>
+  </si>
+  <si>
+    <t>心臟疾病</t>
+  </si>
+  <si>
+    <t>教育年數</t>
+  </si>
+  <si>
+    <t>TUG_StandToSit_m</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>CVLT-SF</t>
+  </si>
+  <si>
+    <t>CVLT-SF-30S</t>
+  </si>
+  <si>
+    <t>TMT-B正確數</t>
+  </si>
+  <si>
+    <t>年齡</t>
+  </si>
+  <si>
+    <t>握力左</t>
+  </si>
+  <si>
+    <t>CVLT-SF-cued</t>
+  </si>
+  <si>
+    <t>Tau Mean</t>
+  </si>
+  <si>
+    <t>cadence_c</t>
+  </si>
+  <si>
+    <t>TUG_SitToStand_m</t>
+  </si>
+  <si>
+    <t>視覺疾病</t>
+  </si>
+  <si>
+    <t>Abeta1-42 Mean</t>
+  </si>
+  <si>
+    <t>cadence(step/min)</t>
+  </si>
+  <si>
+    <t>GDS-15</t>
   </si>
   <si>
     <t>性別</t>
-  </si>
-  <si>
-    <t>心臟疾病</t>
-  </si>
-  <si>
-    <t>MMSE</t>
-  </si>
-  <si>
-    <t>波士頓命名(正確+提示後正確)</t>
-  </si>
-  <si>
-    <t>高血壓</t>
-  </si>
-  <si>
-    <t>握力右</t>
-  </si>
-  <si>
-    <t>神經系統疾病</t>
-  </si>
-  <si>
-    <t>TUG_MidTurn_c</t>
-  </si>
-  <si>
-    <t>Left Stride Duration_c</t>
-  </si>
-  <si>
-    <t>教育年數</t>
-  </si>
-  <si>
-    <t>TUG_StandToSit_c</t>
-  </si>
-  <si>
-    <t>Tau Mean</t>
-  </si>
-  <si>
-    <t>GDS-15</t>
-  </si>
-  <si>
-    <t>cadence(step/min)</t>
-  </si>
-  <si>
-    <t>Abeta1-42 Mean</t>
-  </si>
-  <si>
-    <t>視覺疾病</t>
-  </si>
-  <si>
-    <t>TUG_SitToStand_m</t>
-  </si>
-  <si>
-    <t>cadence_c</t>
-  </si>
-  <si>
-    <t>CVLT-SF-cued</t>
-  </si>
-  <si>
-    <t>TUG_StandToSit_m</t>
-  </si>
-  <si>
-    <t>握力左</t>
-  </si>
-  <si>
-    <t>年齡</t>
-  </si>
-  <si>
-    <t>TMT-B正確數</t>
-  </si>
-  <si>
-    <t>CVLT-SF-30S</t>
-  </si>
-  <si>
-    <t>CVLT-SF</t>
-  </si>
-  <si>
-    <t>BMI</t>
-  </si>
-  <si>
-    <t>speed(m/s)</t>
   </si>
 </sst>
 </file>
@@ -482,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,83 +783,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
